--- a/streamlit_app_v.2/data/lookups/Zonas_fora_de_operacao_urbana.xlsx
+++ b/streamlit_app_v.2/data/lookups/Zonas_fora_de_operacao_urbana.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28103"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27928"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ITA\ITAJunior\Nortis\Zoneamento\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ITA\ITAJunior\Nortis\NORTIS-OFICIAL\streamlit_app_v.2\data\lookups\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="12" documentId="13_ncr:1_{9A77EF0D-A271-4AF9-BB28-E95FA7C63FB3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{20A838D4-359E-4EB0-9B17-0F9252EB430F}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C67EC627-8261-4249-B958-46C54D961AFB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="18696" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="42195" yWindow="-4770" windowWidth="28800" windowHeight="15285" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="26">
   <si>
     <t>Tipo de Zona</t>
   </si>
@@ -120,7 +120,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -521,21 +521,21 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:G16"/>
+  <dimension ref="A1:G15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+      <selection activeCell="A16" sqref="A16:XFD16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.45"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.5703125" style="6" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.5703125" style="7" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="13.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.5546875" style="6" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.5546875" style="7" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="13.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="20.25" customHeight="1">
+    <row r="1" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -558,7 +558,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="18.75" customHeight="1">
+    <row r="2" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -578,7 +578,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="18.75" customHeight="1">
+    <row r="3" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>10</v>
       </c>
@@ -598,7 +598,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="18.75" customHeight="1">
+    <row r="4" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>12</v>
       </c>
@@ -618,7 +618,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="18.75" customHeight="1">
+    <row r="5" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>13</v>
       </c>
@@ -638,7 +638,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="18.75" customHeight="1">
+    <row r="6" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>14</v>
       </c>
@@ -658,7 +658,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="18.75" customHeight="1">
+    <row r="7" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>17</v>
       </c>
@@ -678,7 +678,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="18.75" customHeight="1">
+    <row r="8" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>18</v>
       </c>
@@ -698,7 +698,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="18.75" customHeight="1">
+    <row r="9" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>19</v>
       </c>
@@ -718,7 +718,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="18.75" customHeight="1">
+    <row r="10" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>20</v>
       </c>
@@ -738,7 +738,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="18.75" customHeight="1">
+    <row r="11" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>21</v>
       </c>
@@ -761,7 +761,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="18.75" customHeight="1">
+    <row r="12" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>22</v>
       </c>
@@ -781,7 +781,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="18.75" customHeight="1">
+    <row r="13" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>23</v>
       </c>
@@ -801,7 +801,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="18.75" customHeight="1">
+    <row r="14" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>24</v>
       </c>
@@ -821,7 +821,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="18.75" customHeight="1">
+    <row r="15" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>25</v>
       </c>
@@ -838,29 +838,6 @@
         <v>11</v>
       </c>
       <c r="F15">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7">
-      <c r="A16" t="s">
-        <v>21</v>
-      </c>
-      <c r="B16" t="s">
-        <v>8</v>
-      </c>
-      <c r="C16" s="6">
-        <v>4</v>
-      </c>
-      <c r="D16" s="7">
-        <v>63</v>
-      </c>
-      <c r="E16" t="s">
-        <v>9</v>
-      </c>
-      <c r="F16">
-        <v>1</v>
-      </c>
-      <c r="G16">
         <v>1</v>
       </c>
     </row>
